--- a/conv/PE/cnn参数.xlsx
+++ b/conv/PE/cnn参数.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myfpga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\VerilogCode\conv\PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,35 +110,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101KB * 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input-fm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-fm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12KB * 48（568KB）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>137KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>365KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127KB</t>
+    <t>单张input-fm大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51K * 16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3K * 16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 * 52K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>729 * 16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ouput RAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,18 +468,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -764,30 +760,29 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/conv/PE/cnn参数.xlsx
+++ b/conv/PE/cnn参数.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,18 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单张input-fm大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51K * 16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3K * 16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input RAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,11 +118,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>729 * 16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ouput RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 729*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 729*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input-fm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 * 51K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 729*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 36*16bit</t>
+  </si>
+  <si>
+    <t>4K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 3K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 3K*16bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,19 +511,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -747,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -755,34 +803,72 @@
         <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/conv/PE/cnn参数.xlsx
+++ b/conv/PE/cnn参数.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,66 +118,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>96 * 729*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 729*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input-fm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 * 51K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 729*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>384 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 196*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 * 36*16bit</t>
+  </si>
+  <si>
+    <t>4K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 3K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96 * 3K*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ouput RAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>96 * 729*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256 * 729*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input-fm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 * 51K*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96 * 729*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256 * 196*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>384 * 196*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>384 * 196*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256 * 196*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256 * 36*16bit</t>
-  </si>
-  <si>
-    <t>4K*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4K*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96 * 3K*16bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96 * 3K*16bit</t>
+    <t>weights RAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>363*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2400*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2304*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3456*16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3456*16bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,40 +832,40 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -852,23 +876,43 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
